--- a/doc/学習プログラム仕様/変更仕様_社員個人情報管理.xlsx
+++ b/doc/学習プログラム仕様/変更仕様_社員個人情報管理.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC9FC87-811B-4149-8B0B-90FB5184DA77}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F469C6-87D5-4B49-896F-95A43DF50D00}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12015" windowHeight="3000" tabRatio="880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12015" windowHeight="3000" tabRatio="880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面仕様 (旧姓対応)" sheetId="47" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'画面仕様 (旧姓対応)'!$A$1:$AC$77</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'画面仕様 (社員番号重複チェック対応)'!$A$1:$AC$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'更新仕様 (旧姓対応)'!$A$1:$X$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'表示仕様 (旧住所対応)'!$A$1:$X$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'表示仕様 (旧住所対応)'!$A$1:$X$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'表示仕様 (旧姓対応)'!$A$1:$X$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'表示仕様 (社員番号重複チェック対応)'!$A$1:$X$21</definedName>
   </definedNames>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="162">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -775,37 +775,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>下記の代入を行います。</t>
-    <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ダイニュウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>(旧住所)</t>
-    <rPh sb="1" eb="4">
-      <t>キュウジュウショ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>(現住所)</t>
-    <rPh sb="1" eb="4">
-      <t>ゲンジュウショ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>←</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>【社員住所リスト】</t>
     <rPh sb="1" eb="3">
       <t>シャイン</t>
@@ -861,12 +830,6 @@
     <t>会話処理モデルの選択ユーザーID</t>
   </si>
   <si>
-    <t>住所ラベル</t>
-  </si>
-  <si>
-    <t>memo</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="10"/>
   </si>
@@ -874,24 +837,8 @@
     <t>postal_code</t>
   </si>
   <si>
-    <t>住所</t>
-  </si>
-  <si>
-    <t>addr1 + addr2</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>最寄り駅</t>
-  </si>
-  <si>
-    <t>nearest_station</t>
-  </si>
-  <si>
     <t>…省略…</t>
     <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>ELECT</t>
   </si>
   <si>
     <t xml:space="preserve">   UNION ALL</t>
@@ -942,38 +889,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>【現住所の項目に入力がある場合】</t>
-    <rPh sb="1" eb="4">
-      <t>ゲンジュウショ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>【現住所の項目に入力がない場合】</t>
-    <rPh sb="1" eb="4">
-      <t>ゲンジュウショ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>何もしない。</t>
     <rPh sb="0" eb="1">
       <t>ナニ</t>
@@ -981,19 +896,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>現住所の項目の値をクリアします。</t>
-    <rPh sb="0" eb="3">
-      <t>ゲンジュウショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>※ 旧姓はカナ旧姓に入力がある場合、必須になります。</t>
     <rPh sb="10" eb="12">
       <t>ニュウリョク</t>
@@ -1062,6 +964,161 @@
       <t>ツギ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※住所を新しくするボタンと旧住所の入力項目は</t>
+    <rPh sb="13" eb="16">
+      <t>キュウジュウショ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>住所ID</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>　現住所の住所IDが</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>　ある場合に活性化し、無い場合は非活性とします。</t>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カッセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カッセイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>【現住所の住所IDに入力がある場合】</t>
+    <rPh sb="1" eb="4">
+      <t>ゲンジュウショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>現住所情報をデータベースより取得します。</t>
+  </si>
+  <si>
+    <t>get_current_addr</t>
+  </si>
+  <si>
+    <t>4.現住所取得</t>
+    <rPh sb="2" eb="5">
+      <t>ゲンジュウショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>addr1</t>
+  </si>
+  <si>
+    <t>addr2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> `ADD`.`postal_code` AS `postal_code`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FROM `g_addr` `ADD`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WHERE `ADD`.`id` = ?</t>
+  </si>
+  <si>
+    <t>現住所の住所ID</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>※旧住所の住所項目へ設定します。</t>
+    <rPh sb="1" eb="4">
+      <t>キュウジュウショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>(『表示仕様：4.現住所取得』を参照)</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>【現住所の住所ID入力がない場合】</t>
+    <rPh sb="1" eb="4">
+      <t>ゲンジュウショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>現住所の以下の入力項目の値をクリアします。</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンジュウショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
@@ -1497,7 +1554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1756,6 +1813,102 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3145,8 +3298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD6C57A-641B-46A2-A59C-096F4A4763DF}">
   <dimension ref="A1:AJ75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S73" sqref="S73"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5"/>
@@ -3443,7 +3596,7 @@
       <c r="X31" s="43"/>
       <c r="Y31" s="43"/>
       <c r="Z31" s="43" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="AA31" s="43"/>
       <c r="AB31" s="43"/>
@@ -3484,7 +3637,7 @@
       <c r="X32" s="43"/>
       <c r="Y32" s="43"/>
       <c r="Z32" s="43" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="AA32" s="43"/>
       <c r="AB32" s="43"/>
@@ -3608,7 +3761,7 @@
       </c>
       <c r="N60" s="38"/>
       <c r="O60" s="85" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="P60" s="40"/>
       <c r="Q60" s="41"/>
@@ -3782,11 +3935,11 @@
       <c r="O66" s="87"/>
       <c r="P66" s="88"/>
       <c r="Q66" s="94" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="R66" s="95"/>
       <c r="S66" s="95" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="T66" s="95"/>
       <c r="U66" s="95"/>
@@ -3817,10 +3970,10 @@
       <c r="O67" s="63"/>
       <c r="P67" s="64"/>
       <c r="Q67" s="94" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="R67" s="65" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="S67" s="65"/>
       <c r="T67" s="65"/>
@@ -3852,11 +4005,11 @@
       <c r="O68" s="63"/>
       <c r="P68" s="64"/>
       <c r="Q68" s="94" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="R68" s="65"/>
       <c r="S68" s="65" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="T68" s="65"/>
       <c r="U68" s="65"/>
@@ -3887,12 +4040,12 @@
       <c r="O69" s="63"/>
       <c r="P69" s="64"/>
       <c r="Q69" s="94" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="R69" s="65"/>
       <c r="S69" s="65"/>
       <c r="T69" s="65" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="U69" s="65"/>
       <c r="V69" s="65"/>
@@ -3922,11 +4075,11 @@
       <c r="O70" s="63"/>
       <c r="P70" s="64"/>
       <c r="Q70" s="94" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="R70" s="65"/>
       <c r="S70" s="65" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="T70" s="65"/>
       <c r="U70" s="65"/>
@@ -3957,7 +4110,7 @@
       <c r="O71" s="63"/>
       <c r="P71" s="64"/>
       <c r="Q71" s="94" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="R71" s="65"/>
       <c r="S71" s="65" t="s">
@@ -3992,7 +4145,7 @@
       <c r="O72" s="63"/>
       <c r="P72" s="64"/>
       <c r="Q72" s="94" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="R72" s="65"/>
       <c r="S72" s="65" t="s">
@@ -4027,11 +4180,11 @@
       <c r="O73" s="63"/>
       <c r="P73" s="64"/>
       <c r="Q73" s="94" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="R73" s="75"/>
       <c r="S73" s="75" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="T73" s="75"/>
       <c r="U73" s="75"/>
@@ -4121,7 +4274,7 @@
   <dimension ref="A1:AJ81"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA24" sqref="AA24"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="15" customHeight="1"/>
@@ -4873,7 +5026,7 @@
   <dimension ref="A1:AJ85"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="15" customHeight="1"/>
@@ -5523,7 +5676,7 @@
   <dimension ref="A1:AJ30"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5"/>
@@ -5728,11 +5881,11 @@
       <c r="O15" s="87"/>
       <c r="P15" s="88"/>
       <c r="Q15" s="94" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="R15" s="95"/>
       <c r="S15" s="95" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="T15" s="95"/>
       <c r="U15" s="95"/>
@@ -5763,10 +5916,10 @@
       <c r="O16" s="63"/>
       <c r="P16" s="64"/>
       <c r="Q16" s="94" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="R16" s="65" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="S16" s="65"/>
       <c r="T16" s="65"/>
@@ -5798,11 +5951,11 @@
       <c r="O17" s="63"/>
       <c r="P17" s="64"/>
       <c r="Q17" s="94" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="R17" s="65"/>
       <c r="S17" s="65" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="T17" s="65"/>
       <c r="U17" s="65"/>
@@ -5833,12 +5986,12 @@
       <c r="O18" s="63"/>
       <c r="P18" s="64"/>
       <c r="Q18" s="94" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="R18" s="65"/>
       <c r="S18" s="65"/>
       <c r="T18" s="65" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="U18" s="65"/>
       <c r="V18" s="65"/>
@@ -5868,11 +6021,11 @@
       <c r="O19" s="63"/>
       <c r="P19" s="64"/>
       <c r="Q19" s="94" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="R19" s="65"/>
       <c r="S19" s="65" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="T19" s="65"/>
       <c r="U19" s="65"/>
@@ -5903,7 +6056,7 @@
       <c r="O20" s="63"/>
       <c r="P20" s="64"/>
       <c r="Q20" s="94" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="R20" s="65"/>
       <c r="S20" s="65" t="s">
@@ -5938,7 +6091,7 @@
       <c r="O21" s="63"/>
       <c r="P21" s="64"/>
       <c r="Q21" s="94" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="R21" s="65"/>
       <c r="S21" s="65" t="s">
@@ -5973,11 +6126,11 @@
       <c r="O22" s="63"/>
       <c r="P22" s="64"/>
       <c r="Q22" s="94" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="R22" s="65"/>
       <c r="S22" s="65" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="T22" s="65"/>
       <c r="U22" s="65"/>
@@ -6008,7 +6161,7 @@
       <c r="O23" s="63"/>
       <c r="P23" s="64"/>
       <c r="Q23" s="94" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="R23" s="75" t="s">
         <v>68</v>
@@ -6043,7 +6196,7 @@
       <c r="O24" s="63"/>
       <c r="P24" s="64"/>
       <c r="Q24" s="94" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="R24" s="75"/>
       <c r="S24" s="75" t="s">
@@ -6078,7 +6231,7 @@
       <c r="O25" s="63"/>
       <c r="P25" s="64"/>
       <c r="Q25" s="94" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="R25" s="75"/>
       <c r="S25" s="78" t="s">
@@ -6113,7 +6266,7 @@
       <c r="O26" s="63"/>
       <c r="P26" s="64"/>
       <c r="Q26" s="94" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="R26" s="75"/>
       <c r="S26" s="78"/>
@@ -6148,7 +6301,7 @@
       <c r="O27" s="63"/>
       <c r="P27" s="64"/>
       <c r="Q27" s="94" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="R27" s="75"/>
       <c r="S27" s="78"/>
@@ -6183,7 +6336,7 @@
       <c r="O28" s="63"/>
       <c r="P28" s="64"/>
       <c r="Q28" s="94" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="R28" s="75"/>
       <c r="S28" s="78" t="s">
@@ -6219,7 +6372,7 @@
       <c r="P29" s="64"/>
       <c r="Q29" s="50"/>
       <c r="R29" s="65" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="S29" s="65"/>
       <c r="T29" s="65"/>
@@ -6276,7 +6429,7 @@
   <dimension ref="A1:AJ82"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="15" customHeight="1"/>
@@ -6374,7 +6527,7 @@
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="8" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -6402,7 +6555,7 @@
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="8" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -6430,7 +6583,7 @@
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="8" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -6458,7 +6611,7 @@
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="8" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -7081,10 +7234,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24717B58-B430-4930-B995-117C7FEEAC96}">
-  <dimension ref="A1:AJ91"/>
+  <dimension ref="A1:AJ100"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A55" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R78" sqref="R78:V83"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5"/>
@@ -7923,7 +8076,7 @@
       <c r="E71" s="34"/>
       <c r="F71" s="35"/>
       <c r="G71" s="36" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="H71" s="36"/>
       <c r="I71" s="36"/>
@@ -7957,20 +8110,18 @@
       <c r="B72" s="27"/>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
-      <c r="E72" s="34">
-        <v>28</v>
-      </c>
-      <c r="F72" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="G72" s="36"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="36" t="s">
+        <v>98</v>
+      </c>
       <c r="H72" s="36"/>
       <c r="I72" s="36"/>
       <c r="J72" s="36"/>
       <c r="K72" s="36"/>
       <c r="L72" s="37"/>
       <c r="M72" s="34" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="N72" s="38"/>
       <c r="O72" s="39"/>
@@ -7980,8 +8131,8 @@
       <c r="S72" s="42"/>
       <c r="T72" s="43"/>
       <c r="U72" s="43"/>
-      <c r="V72" s="42" t="s">
-        <v>101</v>
+      <c r="V72" s="79" t="s">
+        <v>97</v>
       </c>
       <c r="W72" s="43"/>
       <c r="X72" s="43"/>
@@ -7992,231 +8143,235 @@
       <c r="AC72" s="44"/>
     </row>
     <row r="73" spans="1:29">
-      <c r="E73" s="28" t="s">
-        <v>87</v>
-      </c>
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="34">
+        <v>28</v>
+      </c>
+      <c r="F73" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="N73" s="38"/>
+      <c r="O73" s="39"/>
+      <c r="P73" s="40"/>
+      <c r="Q73" s="41"/>
+      <c r="R73" s="34"/>
+      <c r="S73" s="42"/>
+      <c r="T73" s="43"/>
+      <c r="U73" s="43"/>
+      <c r="V73" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="W73" s="43"/>
+      <c r="X73" s="43"/>
+      <c r="Y73" s="43"/>
+      <c r="Z73" s="43"/>
+      <c r="AA73" s="43"/>
+      <c r="AB73" s="43"/>
+      <c r="AC73" s="44"/>
+    </row>
+    <row r="74" spans="1:29">
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="96"/>
+      <c r="F74" s="97"/>
+      <c r="G74" s="98"/>
+      <c r="H74" s="98"/>
+      <c r="I74" s="98"/>
+      <c r="J74" s="98"/>
+      <c r="K74" s="98"/>
+      <c r="L74" s="99"/>
+      <c r="M74" s="96"/>
+      <c r="N74" s="100"/>
+      <c r="O74" s="101"/>
+      <c r="P74" s="102"/>
+      <c r="Q74" s="103"/>
+      <c r="R74" s="96"/>
+      <c r="S74" s="104"/>
+      <c r="T74" s="105"/>
+      <c r="U74" s="105"/>
+      <c r="V74" s="104" t="s">
+        <v>144</v>
+      </c>
+      <c r="W74" s="105"/>
+      <c r="X74" s="105"/>
+      <c r="Y74" s="105"/>
+      <c r="Z74" s="105"/>
+      <c r="AA74" s="105"/>
+      <c r="AB74" s="105"/>
+      <c r="AC74" s="106"/>
     </row>
     <row r="75" spans="1:29">
       <c r="A75" s="27"/>
       <c r="B75" s="27"/>
-      <c r="C75" s="27" t="s">
-        <v>6</v>
-      </c>
+      <c r="C75" s="27"/>
       <c r="D75" s="27"/>
+      <c r="E75" s="89"/>
+      <c r="F75" s="118"/>
+      <c r="G75" s="119"/>
+      <c r="H75" s="119"/>
+      <c r="I75" s="119"/>
+      <c r="J75" s="119"/>
+      <c r="K75" s="119"/>
+      <c r="L75" s="120"/>
+      <c r="M75" s="89"/>
+      <c r="N75" s="121"/>
+      <c r="O75" s="122"/>
+      <c r="P75" s="123"/>
+      <c r="Q75" s="124"/>
+      <c r="R75" s="89"/>
+      <c r="S75" s="125"/>
+      <c r="T75" s="95"/>
+      <c r="U75" s="95"/>
+      <c r="V75" s="125" t="s">
+        <v>146</v>
+      </c>
+      <c r="W75" s="95"/>
+      <c r="X75" s="95"/>
+      <c r="Y75" s="95"/>
+      <c r="Z75" s="95"/>
+      <c r="AA75" s="95"/>
+      <c r="AB75" s="95"/>
+      <c r="AC75" s="126"/>
     </row>
     <row r="76" spans="1:29">
       <c r="A76" s="27"/>
       <c r="B76" s="27"/>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
-      <c r="E76" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G76" s="32"/>
-      <c r="H76" s="32"/>
-      <c r="I76" s="32"/>
-      <c r="J76" s="32"/>
-      <c r="K76" s="32"/>
-      <c r="L76" s="32"/>
-      <c r="M76" s="33"/>
-      <c r="N76" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="O76" s="32"/>
-      <c r="P76" s="33"/>
-      <c r="Q76" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R76" s="32"/>
-      <c r="S76" s="32"/>
-      <c r="T76" s="32"/>
-      <c r="U76" s="32"/>
-      <c r="V76" s="32"/>
-      <c r="W76" s="32"/>
-      <c r="X76" s="32"/>
-      <c r="Y76" s="32"/>
-      <c r="Z76" s="32"/>
-      <c r="AA76" s="32"/>
-      <c r="AB76" s="32"/>
-      <c r="AC76" s="33"/>
-    </row>
-    <row r="77" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="51">
-        <v>3</v>
-      </c>
-      <c r="F77" s="52">
-        <v>28</v>
-      </c>
-      <c r="G77" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="H77" s="54"/>
-      <c r="I77" s="54"/>
-      <c r="J77" s="54"/>
-      <c r="K77" s="54"/>
-      <c r="L77" s="54"/>
-      <c r="M77" s="55"/>
-      <c r="N77" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="O77" s="46"/>
-      <c r="P77" s="47"/>
-      <c r="Q77" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="R77" s="56"/>
-      <c r="S77" s="56"/>
-      <c r="T77" s="56"/>
-      <c r="U77" s="56"/>
-      <c r="V77" s="56"/>
-      <c r="W77" s="56"/>
-      <c r="X77" s="56"/>
-      <c r="Y77" s="56"/>
-      <c r="Z77" s="56"/>
-      <c r="AA77" s="56"/>
-      <c r="AB77" s="56"/>
-      <c r="AC77" s="57"/>
-    </row>
-    <row r="78" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A78" s="27"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="58"/>
-      <c r="F78" s="59"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="61"/>
-      <c r="I78" s="61"/>
-      <c r="J78" s="61"/>
-      <c r="K78" s="61"/>
-      <c r="L78" s="61"/>
-      <c r="M78" s="62"/>
-      <c r="N78" s="86"/>
-      <c r="O78" s="87"/>
-      <c r="P78" s="88"/>
-      <c r="Q78" s="86"/>
-      <c r="R78" s="65" t="s">
-        <v>146</v>
-      </c>
-      <c r="S78" s="65"/>
-      <c r="T78" s="65"/>
-      <c r="U78" s="65"/>
-      <c r="V78" s="65"/>
-      <c r="W78" s="65"/>
-      <c r="X78" s="65"/>
-      <c r="Y78" s="65"/>
-      <c r="Z78" s="65"/>
-      <c r="AA78" s="65"/>
-      <c r="AB78" s="65"/>
-      <c r="AC78" s="64"/>
-    </row>
-    <row r="79" spans="1:29" ht="13.5" customHeight="1">
+      <c r="E76" s="107"/>
+      <c r="F76" s="108"/>
+      <c r="G76" s="109"/>
+      <c r="H76" s="109"/>
+      <c r="I76" s="109"/>
+      <c r="J76" s="109"/>
+      <c r="K76" s="109"/>
+      <c r="L76" s="110"/>
+      <c r="M76" s="107"/>
+      <c r="N76" s="111"/>
+      <c r="O76" s="112"/>
+      <c r="P76" s="113"/>
+      <c r="Q76" s="114"/>
+      <c r="R76" s="107"/>
+      <c r="S76" s="115"/>
+      <c r="T76" s="116"/>
+      <c r="U76" s="116"/>
+      <c r="V76" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="W76" s="116"/>
+      <c r="X76" s="116"/>
+      <c r="Y76" s="116"/>
+      <c r="Z76" s="116"/>
+      <c r="AA76" s="116"/>
+      <c r="AB76" s="116"/>
+      <c r="AC76" s="117"/>
+    </row>
+    <row r="77" spans="1:29">
+      <c r="E77" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29">
       <c r="A79" s="27"/>
       <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
+      <c r="C79" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="D79" s="27"/>
-      <c r="E79" s="58"/>
-      <c r="F79" s="59"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="61"/>
-      <c r="I79" s="61"/>
-      <c r="J79" s="61"/>
-      <c r="K79" s="61"/>
-      <c r="L79" s="61"/>
-      <c r="M79" s="62"/>
-      <c r="N79" s="50"/>
-      <c r="O79" s="63"/>
-      <c r="P79" s="64"/>
-      <c r="Q79" s="50"/>
-      <c r="R79" s="65"/>
-      <c r="S79" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="T79" s="65"/>
-      <c r="U79" s="65"/>
-      <c r="V79" s="65"/>
-      <c r="W79" s="65"/>
-      <c r="X79" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y79" s="65"/>
-      <c r="Z79" s="65"/>
-      <c r="AA79" s="65"/>
-      <c r="AB79" s="65"/>
-      <c r="AC79" s="64"/>
-    </row>
-    <row r="80" spans="1:29" ht="13.5" customHeight="1">
+    </row>
+    <row r="80" spans="1:29">
       <c r="A80" s="27"/>
       <c r="B80" s="27"/>
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
-      <c r="E80" s="58"/>
-      <c r="F80" s="59"/>
-      <c r="G80" s="60"/>
-      <c r="H80" s="61"/>
-      <c r="I80" s="61"/>
-      <c r="J80" s="61"/>
-      <c r="K80" s="61"/>
-      <c r="L80" s="61"/>
-      <c r="M80" s="62"/>
-      <c r="N80" s="50"/>
-      <c r="O80" s="63"/>
-      <c r="P80" s="64"/>
-      <c r="Q80" s="50"/>
-      <c r="R80" s="65"/>
-      <c r="S80" s="65"/>
-      <c r="T80" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="U80" s="65"/>
-      <c r="V80" s="65"/>
-      <c r="W80" s="65"/>
-      <c r="X80" s="65"/>
-      <c r="Y80" s="65"/>
-      <c r="Z80" s="65"/>
-      <c r="AA80" s="65"/>
-      <c r="AB80" s="65"/>
-      <c r="AC80" s="64"/>
+      <c r="E80" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="32"/>
+      <c r="K80" s="32"/>
+      <c r="L80" s="32"/>
+      <c r="M80" s="33"/>
+      <c r="N80" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="O80" s="32"/>
+      <c r="P80" s="33"/>
+      <c r="Q80" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R80" s="32"/>
+      <c r="S80" s="32"/>
+      <c r="T80" s="32"/>
+      <c r="U80" s="32"/>
+      <c r="V80" s="32"/>
+      <c r="W80" s="32"/>
+      <c r="X80" s="32"/>
+      <c r="Y80" s="32"/>
+      <c r="Z80" s="32"/>
+      <c r="AA80" s="32"/>
+      <c r="AB80" s="32"/>
+      <c r="AC80" s="33"/>
     </row>
     <row r="81" spans="1:29" ht="13.5" customHeight="1">
       <c r="A81" s="27"/>
       <c r="B81" s="27"/>
       <c r="C81" s="27"/>
       <c r="D81" s="27"/>
-      <c r="E81" s="58"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="61"/>
-      <c r="J81" s="61"/>
-      <c r="K81" s="61"/>
-      <c r="L81" s="61"/>
-      <c r="M81" s="62"/>
-      <c r="N81" s="50"/>
-      <c r="O81" s="63"/>
-      <c r="P81" s="64"/>
-      <c r="Q81" s="50"/>
-      <c r="R81" s="65"/>
-      <c r="S81" s="65"/>
-      <c r="T81" s="65"/>
-      <c r="U81" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="V81" s="65"/>
-      <c r="W81" s="65"/>
-      <c r="X81" s="65"/>
-      <c r="Y81" s="65"/>
-      <c r="Z81" s="65"/>
-      <c r="AA81" s="65"/>
-      <c r="AB81" s="65"/>
-      <c r="AC81" s="64"/>
+      <c r="E81" s="51">
+        <v>3</v>
+      </c>
+      <c r="F81" s="52">
+        <v>28</v>
+      </c>
+      <c r="G81" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="H81" s="54"/>
+      <c r="I81" s="54"/>
+      <c r="J81" s="54"/>
+      <c r="K81" s="54"/>
+      <c r="L81" s="54"/>
+      <c r="M81" s="55"/>
+      <c r="N81" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="O81" s="46"/>
+      <c r="P81" s="47"/>
+      <c r="Q81" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="R81" s="56"/>
+      <c r="S81" s="56"/>
+      <c r="T81" s="56"/>
+      <c r="U81" s="56"/>
+      <c r="V81" s="56"/>
+      <c r="W81" s="56"/>
+      <c r="X81" s="56"/>
+      <c r="Y81" s="56"/>
+      <c r="Z81" s="56"/>
+      <c r="AA81" s="56"/>
+      <c r="AB81" s="56"/>
+      <c r="AC81" s="57"/>
     </row>
     <row r="82" spans="1:29" ht="13.5" customHeight="1">
       <c r="A82" s="27"/>
@@ -8232,15 +8387,15 @@
       <c r="K82" s="61"/>
       <c r="L82" s="61"/>
       <c r="M82" s="62"/>
-      <c r="N82" s="50"/>
-      <c r="O82" s="63"/>
-      <c r="P82" s="64"/>
-      <c r="Q82" s="50"/>
-      <c r="R82" s="65"/>
+      <c r="N82" s="86"/>
+      <c r="O82" s="87"/>
+      <c r="P82" s="88"/>
+      <c r="Q82" s="86"/>
+      <c r="R82" s="65" t="s">
+        <v>148</v>
+      </c>
       <c r="S82" s="65"/>
-      <c r="T82" s="65" t="s">
-        <v>105</v>
-      </c>
+      <c r="T82" s="65"/>
       <c r="U82" s="65"/>
       <c r="V82" s="65"/>
       <c r="W82" s="65"/>
@@ -8265,22 +8420,23 @@
       <c r="K83" s="61"/>
       <c r="L83" s="61"/>
       <c r="M83" s="62"/>
-      <c r="N83" s="50"/>
-      <c r="O83" s="63"/>
-      <c r="P83" s="64"/>
-      <c r="Q83" s="50"/>
+      <c r="N83" s="86"/>
+      <c r="O83" s="87"/>
+      <c r="P83" s="88"/>
+      <c r="Q83" s="86"/>
       <c r="R83" s="65"/>
       <c r="S83" s="65" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="T83" s="65"/>
       <c r="U83" s="65"/>
       <c r="V83" s="65"/>
       <c r="W83" s="65"/>
-      <c r="X83" s="65"/>
+      <c r="X83" s="65" t="s">
+        <v>106</v>
+      </c>
       <c r="Y83" s="65"/>
       <c r="Z83" s="65"/>
-      <c r="AA83" s="65"/>
       <c r="AB83" s="65"/>
       <c r="AC83" s="64"/>
     </row>
@@ -8298,25 +8454,24 @@
       <c r="K84" s="61"/>
       <c r="L84" s="61"/>
       <c r="M84" s="62"/>
-      <c r="N84" s="50"/>
-      <c r="O84" s="63"/>
-      <c r="P84" s="64"/>
-      <c r="Q84" s="80"/>
-      <c r="R84" s="77"/>
-      <c r="S84" s="77" t="s">
-        <v>108</v>
-      </c>
-      <c r="T84" s="77"/>
-      <c r="U84" s="77"/>
-      <c r="V84" s="77"/>
-      <c r="W84" s="77"/>
-      <c r="X84" s="77" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z84" s="77"/>
-      <c r="AA84" s="77"/>
-      <c r="AB84" s="77"/>
-      <c r="AC84" s="81"/>
+      <c r="N84" s="86"/>
+      <c r="O84" s="87"/>
+      <c r="P84" s="88"/>
+      <c r="Q84" s="86"/>
+      <c r="R84" s="65"/>
+      <c r="S84" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="T84" s="65"/>
+      <c r="U84" s="65"/>
+      <c r="V84" s="65"/>
+      <c r="W84" s="65"/>
+      <c r="X84" s="65"/>
+      <c r="Y84" s="65"/>
+      <c r="Z84" s="127"/>
+      <c r="AA84" s="127"/>
+      <c r="AB84" s="65"/>
+      <c r="AC84" s="64"/>
     </row>
     <row r="85" spans="1:29" ht="13.5" customHeight="1">
       <c r="A85" s="27"/>
@@ -8332,28 +8487,24 @@
       <c r="K85" s="61"/>
       <c r="L85" s="61"/>
       <c r="M85" s="62"/>
-      <c r="N85" s="50"/>
-      <c r="O85" s="63"/>
-      <c r="P85" s="64"/>
-      <c r="Q85" s="80"/>
-      <c r="R85" s="77"/>
-      <c r="S85" s="77"/>
-      <c r="T85" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="U85" s="77"/>
-      <c r="V85" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="W85" s="77"/>
-      <c r="X85" s="77"/>
-      <c r="Y85" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z85" s="77"/>
-      <c r="AA85" s="77"/>
-      <c r="AB85" s="77"/>
-      <c r="AC85" s="81"/>
+      <c r="N85" s="86"/>
+      <c r="O85" s="87"/>
+      <c r="P85" s="88"/>
+      <c r="Q85" s="86"/>
+      <c r="R85" s="65"/>
+      <c r="S85" s="65"/>
+      <c r="T85" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="U85" s="65"/>
+      <c r="V85" s="65"/>
+      <c r="W85" s="65"/>
+      <c r="X85" s="65"/>
+      <c r="Y85" s="65"/>
+      <c r="Z85" s="127"/>
+      <c r="AA85" s="127"/>
+      <c r="AB85" s="65"/>
+      <c r="AC85" s="64"/>
     </row>
     <row r="86" spans="1:29" ht="13.5" customHeight="1">
       <c r="A86" s="27"/>
@@ -8369,28 +8520,24 @@
       <c r="K86" s="61"/>
       <c r="L86" s="61"/>
       <c r="M86" s="62"/>
-      <c r="N86" s="50"/>
-      <c r="O86" s="63"/>
-      <c r="P86" s="64"/>
-      <c r="Q86" s="80"/>
-      <c r="R86" s="77"/>
-      <c r="S86" s="77"/>
-      <c r="T86" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="U86" s="77"/>
-      <c r="V86" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="W86" s="77"/>
-      <c r="X86" s="77"/>
-      <c r="Y86" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z86" s="77"/>
-      <c r="AA86" s="77"/>
-      <c r="AB86" s="77"/>
-      <c r="AC86" s="81"/>
+      <c r="N86" s="86"/>
+      <c r="O86" s="87"/>
+      <c r="P86" s="88"/>
+      <c r="Q86" s="86"/>
+      <c r="R86" s="65"/>
+      <c r="S86" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="T86" s="65"/>
+      <c r="U86" s="65"/>
+      <c r="V86" s="65"/>
+      <c r="W86" s="65"/>
+      <c r="X86" s="65"/>
+      <c r="Y86" s="65"/>
+      <c r="Z86" s="127"/>
+      <c r="AA86" s="127"/>
+      <c r="AB86" s="65"/>
+      <c r="AC86" s="64"/>
     </row>
     <row r="87" spans="1:29" ht="13.5" customHeight="1">
       <c r="A87" s="27"/>
@@ -8406,28 +8553,26 @@
       <c r="K87" s="61"/>
       <c r="L87" s="61"/>
       <c r="M87" s="62"/>
-      <c r="N87" s="50"/>
-      <c r="O87" s="63"/>
-      <c r="P87" s="64"/>
-      <c r="Q87" s="80"/>
-      <c r="R87" s="77"/>
-      <c r="S87" s="77"/>
-      <c r="T87" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="U87" s="77"/>
-      <c r="V87" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="W87" s="77"/>
-      <c r="X87" s="77"/>
-      <c r="Y87" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z87" s="77"/>
-      <c r="AA87" s="77"/>
-      <c r="AB87" s="77"/>
-      <c r="AC87" s="81"/>
+      <c r="N87" s="86"/>
+      <c r="O87" s="87"/>
+      <c r="P87" s="88"/>
+      <c r="Q87" s="94" t="s">
+        <v>137</v>
+      </c>
+      <c r="R87" s="95"/>
+      <c r="S87" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="T87" s="95"/>
+      <c r="U87" s="95"/>
+      <c r="V87" s="95"/>
+      <c r="W87" s="95"/>
+      <c r="X87" s="95"/>
+      <c r="Y87" s="95"/>
+      <c r="Z87" s="95"/>
+      <c r="AA87" s="95"/>
+      <c r="AB87" s="65"/>
+      <c r="AC87" s="64"/>
     </row>
     <row r="88" spans="1:29" ht="13.5" customHeight="1">
       <c r="A88" s="27"/>
@@ -8443,24 +8588,26 @@
       <c r="K88" s="61"/>
       <c r="L88" s="61"/>
       <c r="M88" s="62"/>
-      <c r="N88" s="50"/>
-      <c r="O88" s="63"/>
-      <c r="P88" s="64"/>
-      <c r="Q88" s="80"/>
-      <c r="R88" s="77"/>
-      <c r="S88" s="77" t="s">
+      <c r="N88" s="86"/>
+      <c r="O88" s="87"/>
+      <c r="P88" s="88"/>
+      <c r="Q88" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="R88" s="65"/>
+      <c r="S88" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="T88" s="77"/>
-      <c r="U88" s="77"/>
-      <c r="V88" s="77"/>
-      <c r="W88" s="77"/>
-      <c r="X88" s="77"/>
-      <c r="Y88" s="77"/>
-      <c r="Z88" s="77"/>
-      <c r="AA88" s="77"/>
-      <c r="AB88" s="77"/>
-      <c r="AC88" s="81"/>
+      <c r="T88" s="65"/>
+      <c r="U88" s="65"/>
+      <c r="V88" s="65"/>
+      <c r="W88" s="65"/>
+      <c r="X88" s="65"/>
+      <c r="Y88" s="65"/>
+      <c r="Z88" s="65"/>
+      <c r="AA88" s="65"/>
+      <c r="AB88" s="65"/>
+      <c r="AC88" s="64"/>
     </row>
     <row r="89" spans="1:29" ht="13.5" customHeight="1">
       <c r="A89" s="27"/>
@@ -8476,24 +8623,26 @@
       <c r="K89" s="61"/>
       <c r="L89" s="61"/>
       <c r="M89" s="62"/>
-      <c r="N89" s="50"/>
-      <c r="O89" s="63"/>
-      <c r="P89" s="64"/>
-      <c r="Q89" s="80"/>
-      <c r="R89" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="S89" s="77"/>
-      <c r="T89" s="77"/>
-      <c r="U89" s="77"/>
-      <c r="V89" s="77"/>
-      <c r="W89" s="77"/>
-      <c r="X89" s="77"/>
-      <c r="Y89" s="77"/>
-      <c r="Z89" s="77"/>
-      <c r="AA89" s="77"/>
-      <c r="AB89" s="77"/>
-      <c r="AC89" s="81"/>
+      <c r="N89" s="86"/>
+      <c r="O89" s="87"/>
+      <c r="P89" s="88"/>
+      <c r="Q89" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="R89" s="65"/>
+      <c r="S89" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="T89" s="65"/>
+      <c r="U89" s="65"/>
+      <c r="V89" s="65"/>
+      <c r="W89" s="65"/>
+      <c r="X89" s="65"/>
+      <c r="Y89" s="65"/>
+      <c r="Z89" s="75"/>
+      <c r="AA89" s="65"/>
+      <c r="AB89" s="65"/>
+      <c r="AC89" s="64"/>
     </row>
     <row r="90" spans="1:29" ht="13.5" customHeight="1">
       <c r="A90" s="27"/>
@@ -8509,55 +8658,358 @@
       <c r="K90" s="61"/>
       <c r="L90" s="61"/>
       <c r="M90" s="62"/>
-      <c r="N90" s="50"/>
-      <c r="O90" s="63"/>
-      <c r="P90" s="64"/>
-      <c r="Q90" s="80"/>
-      <c r="R90" s="77"/>
-      <c r="S90" s="77" t="s">
-        <v>148</v>
-      </c>
-      <c r="T90" s="77"/>
-      <c r="U90" s="77"/>
-      <c r="V90" s="77"/>
-      <c r="W90" s="77"/>
-      <c r="X90" s="77"/>
-      <c r="Y90" s="77"/>
-      <c r="Z90" s="77"/>
-      <c r="AA90" s="77"/>
-      <c r="AB90" s="77"/>
-      <c r="AC90" s="81"/>
+      <c r="N90" s="86"/>
+      <c r="O90" s="87"/>
+      <c r="P90" s="88"/>
+      <c r="Q90" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="R90" s="65"/>
+      <c r="S90" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="T90" s="65"/>
+      <c r="U90" s="65"/>
+      <c r="V90" s="65"/>
+      <c r="W90" s="65"/>
+      <c r="X90" s="65"/>
+      <c r="Y90" s="65"/>
+      <c r="Z90" s="65"/>
+      <c r="AA90" s="65"/>
+      <c r="AB90" s="65"/>
+      <c r="AC90" s="64"/>
     </row>
     <row r="91" spans="1:29" ht="13.5" customHeight="1">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
       <c r="D91" s="27"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="67"/>
-      <c r="G91" s="68"/>
-      <c r="H91" s="69"/>
-      <c r="I91" s="69"/>
-      <c r="J91" s="69"/>
-      <c r="K91" s="69"/>
-      <c r="L91" s="69"/>
-      <c r="M91" s="70"/>
-      <c r="N91" s="71"/>
-      <c r="O91" s="72"/>
-      <c r="P91" s="73"/>
-      <c r="Q91" s="82"/>
-      <c r="R91" s="83"/>
-      <c r="S91" s="83"/>
-      <c r="T91" s="83"/>
-      <c r="U91" s="83"/>
-      <c r="V91" s="83"/>
-      <c r="W91" s="83"/>
-      <c r="X91" s="83"/>
-      <c r="Y91" s="83"/>
-      <c r="Z91" s="83"/>
-      <c r="AA91" s="83"/>
-      <c r="AB91" s="83"/>
-      <c r="AC91" s="84"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="59"/>
+      <c r="G91" s="60"/>
+      <c r="H91" s="61"/>
+      <c r="I91" s="61"/>
+      <c r="J91" s="61"/>
+      <c r="K91" s="61"/>
+      <c r="L91" s="61"/>
+      <c r="M91" s="62"/>
+      <c r="N91" s="86"/>
+      <c r="O91" s="87"/>
+      <c r="P91" s="88"/>
+      <c r="Q91" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="R91" s="65"/>
+      <c r="S91" s="65"/>
+      <c r="T91" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="U91" s="65"/>
+      <c r="V91" s="65"/>
+      <c r="W91" s="65"/>
+      <c r="X91" s="65"/>
+      <c r="Y91" s="65"/>
+      <c r="Z91" s="65"/>
+      <c r="AA91" s="65"/>
+      <c r="AB91" s="65"/>
+      <c r="AC91" s="64"/>
+    </row>
+    <row r="92" spans="1:29" ht="13.5" customHeight="1">
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="60"/>
+      <c r="H92" s="61"/>
+      <c r="I92" s="61"/>
+      <c r="J92" s="61"/>
+      <c r="K92" s="61"/>
+      <c r="L92" s="61"/>
+      <c r="M92" s="62"/>
+      <c r="N92" s="86"/>
+      <c r="O92" s="87"/>
+      <c r="P92" s="88"/>
+      <c r="Q92" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="R92" s="65"/>
+      <c r="S92" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="T92" s="65"/>
+      <c r="U92" s="65"/>
+      <c r="V92" s="65"/>
+      <c r="W92" s="65"/>
+      <c r="X92" s="65"/>
+      <c r="Y92" s="65"/>
+      <c r="Z92" s="65"/>
+      <c r="AA92" s="65"/>
+      <c r="AB92" s="65"/>
+      <c r="AC92" s="64"/>
+    </row>
+    <row r="93" spans="1:29" ht="13.5" customHeight="1">
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="59"/>
+      <c r="G93" s="60"/>
+      <c r="H93" s="61"/>
+      <c r="I93" s="61"/>
+      <c r="J93" s="61"/>
+      <c r="K93" s="61"/>
+      <c r="L93" s="61"/>
+      <c r="M93" s="62"/>
+      <c r="N93" s="86"/>
+      <c r="O93" s="87"/>
+      <c r="P93" s="88"/>
+      <c r="Q93" s="86"/>
+      <c r="R93" s="77"/>
+      <c r="S93" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="T93" s="77"/>
+      <c r="U93" s="77"/>
+      <c r="V93" s="77"/>
+      <c r="W93" s="77"/>
+      <c r="X93" s="65"/>
+      <c r="Y93" s="65"/>
+      <c r="Z93" s="65"/>
+      <c r="AA93" s="65"/>
+      <c r="AB93" s="65"/>
+      <c r="AC93" s="64"/>
+    </row>
+    <row r="94" spans="1:29" ht="13.5" customHeight="1">
+      <c r="A94" s="27"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="59"/>
+      <c r="G94" s="60"/>
+      <c r="H94" s="61"/>
+      <c r="I94" s="61"/>
+      <c r="J94" s="61"/>
+      <c r="K94" s="61"/>
+      <c r="L94" s="61"/>
+      <c r="M94" s="62"/>
+      <c r="N94" s="86"/>
+      <c r="O94" s="87"/>
+      <c r="P94" s="88"/>
+      <c r="Q94" s="86"/>
+      <c r="R94" s="65"/>
+      <c r="S94" s="65"/>
+      <c r="T94" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="U94" s="65"/>
+      <c r="V94" s="65"/>
+      <c r="W94" s="65"/>
+      <c r="X94" s="65"/>
+      <c r="Y94" s="65"/>
+      <c r="Z94" s="65"/>
+      <c r="AA94" s="65"/>
+      <c r="AB94" s="65"/>
+      <c r="AC94" s="64"/>
+    </row>
+    <row r="95" spans="1:29" ht="13.5" customHeight="1">
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="58"/>
+      <c r="F95" s="59"/>
+      <c r="G95" s="60"/>
+      <c r="H95" s="61"/>
+      <c r="I95" s="61"/>
+      <c r="J95" s="61"/>
+      <c r="K95" s="61"/>
+      <c r="L95" s="61"/>
+      <c r="M95" s="62"/>
+      <c r="N95" s="86"/>
+      <c r="O95" s="87"/>
+      <c r="P95" s="88"/>
+      <c r="Q95" s="86"/>
+      <c r="R95" s="65"/>
+      <c r="S95" s="65"/>
+      <c r="T95" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="U95" s="65"/>
+      <c r="V95" s="65"/>
+      <c r="W95" s="65"/>
+      <c r="X95" s="65"/>
+      <c r="Y95" s="65"/>
+      <c r="Z95" s="65"/>
+      <c r="AA95" s="65"/>
+      <c r="AB95" s="65"/>
+      <c r="AC95" s="64"/>
+    </row>
+    <row r="96" spans="1:29" ht="13.5" customHeight="1">
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="58"/>
+      <c r="F96" s="59"/>
+      <c r="G96" s="60"/>
+      <c r="H96" s="61"/>
+      <c r="I96" s="61"/>
+      <c r="J96" s="61"/>
+      <c r="K96" s="61"/>
+      <c r="L96" s="61"/>
+      <c r="M96" s="62"/>
+      <c r="N96" s="86"/>
+      <c r="O96" s="87"/>
+      <c r="P96" s="88"/>
+      <c r="Q96" s="86"/>
+      <c r="R96" s="65"/>
+      <c r="S96" s="65"/>
+      <c r="T96" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="U96" s="65"/>
+      <c r="V96" s="65"/>
+      <c r="W96" s="65"/>
+      <c r="X96" s="65"/>
+      <c r="Y96" s="65"/>
+      <c r="Z96" s="65"/>
+      <c r="AA96" s="65"/>
+      <c r="AB96" s="65"/>
+      <c r="AC96" s="64"/>
+    </row>
+    <row r="97" spans="1:29" ht="13.5" customHeight="1">
+      <c r="A97" s="27"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="58"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="60"/>
+      <c r="H97" s="61"/>
+      <c r="I97" s="61"/>
+      <c r="J97" s="61"/>
+      <c r="K97" s="61"/>
+      <c r="L97" s="61"/>
+      <c r="M97" s="62"/>
+      <c r="N97" s="86"/>
+      <c r="O97" s="87"/>
+      <c r="P97" s="88"/>
+      <c r="Q97" s="86"/>
+      <c r="R97" s="65"/>
+      <c r="S97" s="65"/>
+      <c r="T97" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="U97" s="65"/>
+      <c r="V97" s="65"/>
+      <c r="W97" s="65"/>
+      <c r="X97" s="65"/>
+      <c r="Y97" s="65"/>
+      <c r="Z97" s="65"/>
+      <c r="AA97" s="65"/>
+      <c r="AB97" s="65"/>
+      <c r="AC97" s="64"/>
+    </row>
+    <row r="98" spans="1:29" ht="13.5" customHeight="1">
+      <c r="A98" s="27"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="58"/>
+      <c r="F98" s="59"/>
+      <c r="G98" s="60"/>
+      <c r="H98" s="61"/>
+      <c r="I98" s="61"/>
+      <c r="J98" s="61"/>
+      <c r="K98" s="61"/>
+      <c r="L98" s="61"/>
+      <c r="M98" s="62"/>
+      <c r="N98" s="50"/>
+      <c r="O98" s="63"/>
+      <c r="P98" s="64"/>
+      <c r="Q98" s="80"/>
+      <c r="R98" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="S98" s="77"/>
+      <c r="T98" s="77"/>
+      <c r="U98" s="77"/>
+      <c r="V98" s="77"/>
+      <c r="W98" s="77"/>
+      <c r="X98" s="77"/>
+      <c r="Y98" s="77"/>
+      <c r="Z98" s="77"/>
+      <c r="AA98" s="77"/>
+      <c r="AB98" s="77"/>
+      <c r="AC98" s="81"/>
+    </row>
+    <row r="99" spans="1:29" ht="13.5" customHeight="1">
+      <c r="A99" s="27"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="59"/>
+      <c r="G99" s="60"/>
+      <c r="H99" s="61"/>
+      <c r="I99" s="61"/>
+      <c r="J99" s="61"/>
+      <c r="K99" s="61"/>
+      <c r="L99" s="61"/>
+      <c r="M99" s="62"/>
+      <c r="N99" s="50"/>
+      <c r="O99" s="63"/>
+      <c r="P99" s="64"/>
+      <c r="Q99" s="80"/>
+      <c r="R99" s="77"/>
+      <c r="S99" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="T99" s="77"/>
+      <c r="U99" s="77"/>
+      <c r="V99" s="77"/>
+      <c r="W99" s="77"/>
+      <c r="X99" s="77"/>
+      <c r="Y99" s="77"/>
+      <c r="Z99" s="77"/>
+      <c r="AA99" s="77"/>
+      <c r="AB99" s="77"/>
+      <c r="AC99" s="81"/>
+    </row>
+    <row r="100" spans="1:29" ht="13.5" customHeight="1">
+      <c r="A100" s="27"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="66"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="68"/>
+      <c r="H100" s="69"/>
+      <c r="I100" s="69"/>
+      <c r="J100" s="69"/>
+      <c r="K100" s="69"/>
+      <c r="L100" s="69"/>
+      <c r="M100" s="70"/>
+      <c r="N100" s="71"/>
+      <c r="O100" s="72"/>
+      <c r="P100" s="73"/>
+      <c r="Q100" s="82"/>
+      <c r="R100" s="83"/>
+      <c r="S100" s="83"/>
+      <c r="T100" s="83"/>
+      <c r="U100" s="83"/>
+      <c r="V100" s="83"/>
+      <c r="W100" s="83"/>
+      <c r="X100" s="83"/>
+      <c r="Y100" s="83"/>
+      <c r="Z100" s="83"/>
+      <c r="AA100" s="83"/>
+      <c r="AB100" s="83"/>
+      <c r="AC100" s="84"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10"/>
@@ -8569,10 +9021,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F447C11F-8C4A-4D4C-9A28-E62DBC93C1F1}">
-  <dimension ref="A1:AJ98"/>
+  <dimension ref="A1:AJ112"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="15" customHeight="1"/>
@@ -8644,7 +9096,7 @@
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="15" customHeight="1">
@@ -8687,7 +9139,7 @@
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="8" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -8715,7 +9167,7 @@
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -8743,7 +9195,7 @@
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -8771,7 +9223,7 @@
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -8799,7 +9251,7 @@
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -8827,7 +9279,7 @@
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -8855,7 +9307,7 @@
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -8883,7 +9335,7 @@
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -8911,7 +9363,7 @@
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -8939,7 +9391,7 @@
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -8967,7 +9419,7 @@
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="8" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -8995,7 +9447,7 @@
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="8" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -9023,7 +9475,7 @@
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -9051,7 +9503,7 @@
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -9079,7 +9531,7 @@
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -9107,7 +9559,7 @@
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -9135,7 +9587,7 @@
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -9222,7 +9674,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -9281,304 +9733,529 @@
       <c r="W32" s="20"/>
       <c r="X32" s="21"/>
     </row>
-    <row r="33" spans="1:24" ht="13.5" customHeight="1">
+    <row r="33" spans="1:24" ht="15" customHeight="1">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="22">
-        <v>14</v>
-      </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="16"/>
-    </row>
-    <row r="34" spans="1:24" ht="13.5" customHeight="1">
+      <c r="E33" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="15" customHeight="1">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
-      <c r="E34" s="22">
-        <v>15</v>
-      </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="M34" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="15"/>
-      <c r="X34" s="16"/>
-    </row>
-    <row r="35" spans="1:24" ht="13.5" customHeight="1">
+    </row>
+    <row r="35" spans="1:24" ht="15" customHeight="1">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
+      <c r="C35" s="17" t="s">
+        <v>151</v>
+      </c>
       <c r="D35" s="17"/>
-      <c r="E35" s="22">
-        <v>16</v>
-      </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="15"/>
-      <c r="X35" s="16"/>
-    </row>
-    <row r="36" spans="1:24" ht="13.5" customHeight="1">
+    </row>
+    <row r="36" spans="1:24" ht="15" customHeight="1">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="22">
-        <v>17</v>
-      </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="M36" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="15"/>
-      <c r="W36" s="15"/>
-      <c r="X36" s="16"/>
-    </row>
-    <row r="37" spans="1:24" ht="15" customHeight="1">
+      <c r="D36" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="13.5" customHeight="1">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="15" customHeight="1">
+      <c r="E37" s="5"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="7"/>
+    </row>
+    <row r="38" spans="1:24" ht="13.5" customHeight="1">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
-    </row>
-    <row r="39" spans="1:24" ht="15" customHeight="1">
+      <c r="E38" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="10"/>
+    </row>
+    <row r="39" spans="1:24" ht="13.5" customHeight="1">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
-    </row>
-    <row r="40" spans="1:24" ht="15" customHeight="1">
+      <c r="E39" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="10"/>
+    </row>
+    <row r="40" spans="1:24" ht="13.5" customHeight="1">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
-    </row>
-    <row r="41" spans="1:24" ht="15" customHeight="1">
+      <c r="E40" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="10"/>
+    </row>
+    <row r="41" spans="1:24" ht="13.5" customHeight="1">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
-    </row>
-    <row r="42" spans="1:24" ht="15" customHeight="1">
+      <c r="E41" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="10"/>
+    </row>
+    <row r="42" spans="1:24" ht="13.5" customHeight="1">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
-    </row>
-    <row r="43" spans="1:24" ht="15" customHeight="1">
+      <c r="E42" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="10"/>
+    </row>
+    <row r="43" spans="1:24" ht="13.5" customHeight="1">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
-    </row>
-    <row r="44" spans="1:24" ht="15" customHeight="1">
+      <c r="E43" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="10"/>
+    </row>
+    <row r="44" spans="1:24" ht="13.5" customHeight="1">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="13"/>
     </row>
     <row r="45" spans="1:24" ht="15" customHeight="1">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
-    </row>
-    <row r="46" spans="1:24" ht="15" customHeight="1">
+      <c r="E45" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="21"/>
+    </row>
+    <row r="46" spans="1:24" ht="13.5" customHeight="1">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
+      <c r="E46" s="22">
+        <v>1</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="16"/>
     </row>
     <row r="47" spans="1:24" ht="15" customHeight="1">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
+      <c r="D47" s="17" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="48" spans="1:24" ht="15" customHeight="1">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
-    </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1">
+      <c r="E48" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="21"/>
+    </row>
+    <row r="49" spans="1:24" ht="13.5" customHeight="1">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
-    </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1">
+      <c r="E49" s="22">
+        <v>17</v>
+      </c>
+      <c r="F49" s="23"/>
+      <c r="G49" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="16"/>
+    </row>
+    <row r="50" spans="1:24" ht="13.5" customHeight="1">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
-    </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1">
+      <c r="E50" s="22">
+        <v>18</v>
+      </c>
+      <c r="F50" s="23"/>
+      <c r="G50" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="M50" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="16"/>
+    </row>
+    <row r="51" spans="1:24" ht="13.5" customHeight="1">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
-    </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
+      <c r="E51" s="22">
+        <v>19</v>
+      </c>
+      <c r="F51" s="23"/>
+      <c r="G51" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="15"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="16"/>
+    </row>
+    <row r="52" spans="1:24" ht="15" customHeight="1">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
-    </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1">
+      <c r="E52" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" ht="15" customHeight="1">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1">
+    <row r="54" spans="1:24" ht="15" customHeight="1">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1">
+    <row r="55" spans="1:24" ht="15" customHeight="1">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1">
+    <row r="56" spans="1:24" ht="15" customHeight="1">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1">
+    <row r="57" spans="1:24" ht="15" customHeight="1">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1">
+    <row r="58" spans="1:24" ht="15" customHeight="1">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1">
+    <row r="59" spans="1:24" ht="15" customHeight="1">
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1">
+    <row r="60" spans="1:24" ht="15" customHeight="1">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1">
+    <row r="61" spans="1:24" ht="15" customHeight="1">
       <c r="A61" s="17"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1">
+    <row r="62" spans="1:24" ht="15" customHeight="1">
       <c r="A62" s="17"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1">
+    <row r="63" spans="1:24" ht="15" customHeight="1">
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1">
+    <row r="64" spans="1:24" ht="15" customHeight="1">
       <c r="A64" s="17"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
@@ -9787,6 +10464,90 @@
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
+    </row>
+    <row r="99" spans="1:4" ht="15" customHeight="1">
+      <c r="A99" s="17"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+    </row>
+    <row r="100" spans="1:4" ht="15" customHeight="1">
+      <c r="A100" s="17"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+    </row>
+    <row r="101" spans="1:4" ht="15" customHeight="1">
+      <c r="A101" s="17"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+    </row>
+    <row r="102" spans="1:4" ht="15" customHeight="1">
+      <c r="A102" s="17"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+    </row>
+    <row r="103" spans="1:4" ht="15" customHeight="1">
+      <c r="A103" s="17"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+    </row>
+    <row r="104" spans="1:4" ht="15" customHeight="1">
+      <c r="A104" s="17"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+    </row>
+    <row r="105" spans="1:4" ht="15" customHeight="1">
+      <c r="A105" s="17"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+    </row>
+    <row r="106" spans="1:4" ht="15" customHeight="1">
+      <c r="A106" s="17"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+    </row>
+    <row r="107" spans="1:4" ht="15" customHeight="1">
+      <c r="A107" s="17"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+    </row>
+    <row r="108" spans="1:4" ht="15" customHeight="1">
+      <c r="A108" s="17"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+    </row>
+    <row r="109" spans="1:4" ht="15" customHeight="1">
+      <c r="A109" s="17"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+    </row>
+    <row r="110" spans="1:4" ht="15" customHeight="1">
+      <c r="A110" s="17"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+    </row>
+    <row r="111" spans="1:4" ht="15" customHeight="1">
+      <c r="A111" s="17"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+    </row>
+    <row r="112" spans="1:4" ht="15" customHeight="1">
+      <c r="A112" s="17"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10"/>
